--- a/tests/robot_framework/files/inquiries/productierapport5-unlinked.xlsx
+++ b/tests/robot_framework/files/inquiries/productierapport5-unlinked.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Storage/Repos/minvws/nl-rdo-woo-web-private/tests/robot_framework/files/inquiries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB25624-84EC-A246-BFB7-512B13CE77BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9E0604-AD37-4741-8A83-A51926E357DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33680" yWindow="2700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>linking2</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
 </sst>
 </file>
@@ -146,13 +149,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -181,11 +188,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F87F501-0345-464A-B538-13B653BE5CED}" name="Table1" displayName="Table1" ref="A1:N3" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F87F501-0345-464A-B538-13B653BE5CED}" name="Table1" displayName="Table1" ref="A1:N3" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="1" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:N3" xr:uid="{7F87F501-0345-464A-B538-13B653BE5CED}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D381F962-FADF-AF4E-9906-CA75454FF40D}" name="ID" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{DB918FF0-F1DD-2344-8E9E-74A09F63C67E}" name="Matter" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{DB918FF0-F1DD-2344-8E9E-74A09F63C67E}" name="Matter" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{85E3AA19-FA4E-A447-9115-7DD58F8A437F}" name="Family" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{86F66076-ECA6-844C-971F-134932794ECF}" name="Email Thread ID" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{936D5F8E-C644-8345-8B7D-8E03C7D8526D}" name="Document" dataCellStyle="Normal"/>
@@ -490,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -560,8 +567,8 @@
       <c r="A2">
         <v>3401</v>
       </c>
-      <c r="B2">
-        <v>9</v>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -583,8 +590,8 @@
       <c r="A3">
         <v>3402</v>
       </c>
-      <c r="B3">
-        <v>9</v>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D3">
         <v>232004</v>
